--- a/medicine/Enfance/Poudlard___Le_Guide_pas_complet_et_pas_fiable_du_tout/Poudlard___Le_Guide_pas_complet_et_pas_fiable_du_tout.xlsx
+++ b/medicine/Enfance/Poudlard___Le_Guide_pas_complet_et_pas_fiable_du_tout/Poudlard___Le_Guide_pas_complet_et_pas_fiable_du_tout.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Poudlard : Le Guide pas complet et pas fiable du tout (titre original : Hogwarts: An Incomplete and Unreliable Guide) est un livre numérique écrit par J. K. Rowling et paru le 6 septembre 2016 à la fois en anglais et en français[3]. 
-Le livre contient des informations supplémentaires de J. K. Rowling concernant quelques éléments liés à Poudlard, l'école de la saga Harry Potter. Le contenu était déjà paru auparavant sur le site Pottermore[4]. 
+Poudlard : Le Guide pas complet et pas fiable du tout (titre original : Hogwarts: An Incomplete and Unreliable Guide) est un livre numérique écrit par J. K. Rowling et paru le 6 septembre 2016 à la fois en anglais et en français. 
+Le livre contient des informations supplémentaires de J. K. Rowling concernant quelques éléments liés à Poudlard, l'école de la saga Harry Potter. Le contenu était déjà paru auparavant sur le site Pottermore. 
 Sa sortie a eu lieu en même temps que deux autres nouvelles : 
 Nouvelles de Poudlard : Pouvoir, Politique et Esprits frappeurs enquiquinants
 Nouvelles de Poudlard : Héroïsme, Tribulations et Passe-temps dangereux </t>
@@ -515,7 +527,9 @@
           <t>Chapitres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Se rendre à Poudlard (La gare de King's Cross, La voie 9 3/4, Le Poudlard Express)
 La cérémonie de la répartition (Le Choixpeau magique, Le chapeauflou)
